--- a/_Format/snLocal_example.xlsx
+++ b/_Format/snLocal_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leong.chen\Desktop\she\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\she\_Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -46,14 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>均能音量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作日8小時平均音壓值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>監測編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,6 +140,14 @@
   </si>
   <si>
     <t>保養Array(陣列製程)輻射設備</t>
+  </si>
+  <si>
+    <t>A權音壓級(dBA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日時量平均(dBA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -538,13 +538,13 @@
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="25.625" customWidth="1"/>
-    <col min="9" max="9" width="56.375" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
+    <col min="7" max="7" width="56.375" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -557,49 +557,49 @@
       <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
+      <c r="H1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>0</v>
@@ -607,31 +607,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="1">
-        <v>92</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
+      <c r="H3" s="1">
+        <v>92</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>0</v>
@@ -639,31 +639,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>27</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1">
-        <v>87</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1">
+        <v>87</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>0</v>
@@ -671,31 +671,31 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1">
-        <v>95</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
+      <c r="F5" t="s">
+        <v>29</v>
       </c>
       <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
+      <c r="H5" s="1">
+        <v>95</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>0</v>
@@ -703,31 +703,31 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>0</v>
